--- a/Test Case/Validazione/10-Lettera Screening/CDA2_Lettera_Screening_OK.xlsx
+++ b/Test Case/Validazione/10-Lettera Screening/CDA2_Lettera_Screening_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sites.ey.com/sites/IBM-SOGEI-Sogei-FSE2.0-GTW/Shared Documents/Sogei - FSE 2.0 - GTW/02.  Accreditamento - contributo SME per checklist/Validazione/[Accreditamento_Fornitori] - TC OK &amp; KO - 20231213/13 - Lettera di Invito per lo Screening/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sites.ey.com/sites/IBM-SOGEI-Sogei-FSE2.0-GTW/Shared Documents/Sogei - FSE 2.0 - GTW/02.  Accreditamento - contributo SME per checklist/Validazione/[Accreditamento_Fornitori] - TC OK &amp; KO - 20231213/13-Lettera di Invito per lo Screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2246" documentId="13_ncr:1_{E79C9974-44A8-4BD7-A07F-D25B0F95D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188F4607-998C-42AE-94FB-FD4B8D522A6A}"/>
+  <xr:revisionPtr revIDLastSave="2302" documentId="13_ncr:1_{E79C9974-44A8-4BD7-A07F-D25B0F95D955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC38D402-756F-48CD-8269-E2E88C02EAF1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{1E8B7D17-95DA-407D-AD12-13C95143136E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{1E8B7D17-95DA-407D-AD12-13C95143136E}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lett inv screen- Caso di Test 1'!$A$1:$G$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Lett inv screen- Caso di Test 2'!$A$1:$G$110</definedName>
+    <definedName name="_FiltroDatabase" localSheetId="1" hidden="1">'Lett inv screen- Caso di Test 1'!$A$1:$G$110</definedName>
+    <definedName name="_FiltroDatabase" localSheetId="2" hidden="1">'Lett inv screen- Caso di Test 2'!$A$1:$G$110</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="195">
   <si>
     <t>Cardinalità/Obbligatorietà da IG</t>
   </si>
@@ -122,13 +125,52 @@
     <t>All'interno della sezione è possibile riportare le informazioni relative all'appuntamento e alle prestazioni previste per lo screening o per gli altri percorsi di prevenzione.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/templateId</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/templateId/@root</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "2.16.840.1.113883.3.1937.777.63.10.613".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@code</t>
+  </si>
+  <si>
+    <t>L'attributo deve essere valorizzato con "112071-6".</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@codeSystem</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "2.16.840.1.113883.6.1".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@codeSystemName</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "LOINC".</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@displayName</t>
+  </si>
+  <si>
+    <t>L'attributo deve essere valorizzato con "Screening invitation letter".</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/text</t>
   </si>
   <si>
     <t>L’elemento text viene utilizzato per introdurre un unico narrative block non strutturato, comprensivo di, a titolo di esempio:
@@ -138,68 +180,170 @@
 - modalità di modifica appuntamento</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
 L'elemento è utilizzato per descrivere un invito, già programmato  tra l’assistito e la struttura sanitaria.
 </t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/@moodCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
 Con data e ora già fissate, l’attributo @moodCode DEVE essere valorizzato con "APT".
 </t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/effectiveTime</t>
+  </si>
+  <si>
     <t>Il tag &lt;effectiveTime&gt; identifica l'orario previsto per l’appuntamento. Se l'incontro non è ancora avvenuto e la data non è nota o non disponibile, il tag può  essere valorizzato con un attributo nullFlavor=UNK.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant</t>
+  </si>
+  <si>
     <t>L'elemento indica la struttura sanitaria o il luogo in cui si svolgerà l'incontro clinico.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/@typecode</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "LOC".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/@classCode</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizato con "SDLOC".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/playingEntity</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/playingEntity/name</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/country</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifica il codice ISTAT dello stato di residenza o domicilio o indirizzo temporaneo. </t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/state</t>
+  </si>
+  <si>
     <t>Identifica il codice della regione; di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/county</t>
+  </si>
+  <si>
     <t>Identifica la sigla automobilistica della provincia; di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/city</t>
+  </si>
+  <si>
     <t>Identifica la descrizione del comune di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/postalCode</t>
+  </si>
+  <si>
     <t>Identifica il CAP di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/streetAddressLine</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Identifica l’indirizzo di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/censusTract</t>
+  </si>
+  <si>
     <t>Identifica il codice ISTAT del comune di residenza o domicilio o indirizzo temporaneo.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/telecom</t>
+  </si>
+  <si>
     <t>L'elemento telecom è un numero telefonico (Voce o Fax), un indirizzo di posta elettronica (E-mail), o altro indirizzo di una risorsa raggiungibile con un'apparecchiatura di telecomunicazione. L'indirizzo viene specificato tramite un Universal Resource Locator URL qualificato da una specifica di tempo e codici di uso che aiutano nella decisione, di quale indirizzo scegliere, per una certa ora o giorno e finalità o scopo. In modo analogo al tag addr, i numeri di telefono, codificati con il tag telecom, sono caratterizzati dall’attributo use.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id</t>
+  </si>
+  <si>
     <t>0…*</t>
   </si>
   <si>
     <t>Riporta l'identificativo della struttura dove si svolgerà l'appuntamento.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@root</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@extension</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@assignedAuthorityName</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship</t>
+  </si>
+  <si>
     <t>Questo elemento descrive le istruzioni di contatto della struttura.</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/@typeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/@classCode</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "OBS".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/@moodCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@code</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "ASSERTION".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@codeSystem</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "2.16.840.1.113883.5.4".</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@codeSystemName</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@displayName</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/text</t>
   </si>
   <si>
     <r>
@@ -228,25 +372,76 @@
     <t>Elemento che consente di rappresentare in modo strutturato le informazioni di dettaglio riferite nel blocco narrativo</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act</t>
+  </si>
+  <si>
     <t>Act Livello Screening</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/@moodCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/@classCode</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "ACT".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/templateId</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/templateId/@root</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "2.16.840.1.113883.3.1937.777.63.10.614".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indica il livello di screening a cui si riferisce l'atto documentato. </t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@code</t>
+  </si>
+  <si>
+    <t>L'attributo deve essere valorizzato con uno dei seguenti codici : 
+- 108273-4(Preventive medicine screening level)
+- LA32760-3 (Level 1)
+- LA32759-5 (Level 2)</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@codeSystem</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@codeSystemName</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@displayName</t>
+  </si>
+  <si>
+    <t>L'attributo deve essere valorizzato con con una delle seguenti stringhe: 
+-Preventive medicine screening level(108273-4)
+-Level 1 (LA32760-3)
+-Level 2 (LA32759-5)</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/text</t>
+  </si>
+  <si>
     <t>Elemento utilizzato per richiamare un contenuto presente all'interno della stessa sezione del documento.</t>
   </si>
   <si>
-    <t>In questo caso verrà esplicitato il ClinicalStatement, procedure che viene utilizzato per indicare la prestazione da eseguire.</t>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship</t>
   </si>
   <si>
     <t>Prestazione Screening</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/@typeCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure</t>
   </si>
   <si>
     <t>Possibili informazioni associabili alle procedure operative sono le seguenti:
@@ -254,10 +449,37 @@
 • Descrizione della Procedura</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/@classCode</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "PROC".</t>
   </si>
   <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/@moodCode</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/templateId</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/templateId/@root</t>
+  </si>
+  <si>
     <t>L'attributo deve essere valorizzato con "2.16.840.1.113883.3.1937.777.63.10.623".</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@code</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@codeSystem</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@codeSystemName</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@displayName</t>
   </si>
   <si>
     <t>Riferimento ad invito precedente</t>
@@ -434,22 +656,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>In questo caso verrà esplicitato il ClinicalStatement, procedure che viene utilizzato per indicare la</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> prestazione da eseguire.</t>
-    </r>
-  </si>
-  <si>
     <t>Riferimento a Invito Precedente</t>
   </si>
   <si>
@@ -478,225 +684,6 @@
   </si>
   <si>
     <t>2…2</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/templateId</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/templateId/@root</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@codeSystem</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@codeSystemName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/code/@displayName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/title</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/text</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/@moodCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/effectiveTime</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/@typecode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/@classCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/playingEntity</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/playingEntity/name</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/country</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/state</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/county</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/city</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/postalCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/streetAddressLine</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/addr/censusTract</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/telecom</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@root</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@extension</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/participant/participantRole/id/@assignedAuthorityName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/@typeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/@classCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/@moodCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@codeSystem</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@codeSystemName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/code/@displayName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/encounter/entryRelationship/observation/text</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/@moodCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/@classCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/templateId</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/templateId/@root</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@codeSystem</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@codeSystemName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/code/@displayName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/text</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/@typeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/@classCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/@moodCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/templateId</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/templateId/@root</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@code</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@codeSystem</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@codeSystemName</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]/entry/act/entryRelationship/procedure/code/@displayName</t>
-  </si>
-  <si>
-    <t>L'attributo deve essere valorizzato con "112071-6"</t>
-  </si>
-  <si>
-    <t>L'attributo deve essere valorizzato con "Screening invitation letter"</t>
-  </si>
-  <si>
-    <t>L'attributo deve essere valorizzato con uno dei seguenti codici : 
-- 108273-4(Preventive medicine screening level)
-- LA32760-3 (Level 1)
-- LA32759-5 (Level 2)</t>
-  </si>
-  <si>
-    <t>L'attributo deve essere valorizzato con una delle seguenti stringhe : 
--Preventive medicine screening level(108273-4)
--Level 1 (LA32760-3)
--Level 2 (LA32759-5)</t>
   </si>
   <si>
     <t>ClinicalDocument/component/structuredBody/component/section[@ID=Livello_Screening]</t>
@@ -1195,7 +1182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{6729E4CB-DE51-4928-8314-43AA76BE160A}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1218,12 +1205,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1575,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBFE66E-2C65-468C-88A7-6E2308A001C0}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:G53"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1701,7 @@
     </row>
     <row r="7" spans="1:7" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1739,7 +1722,7 @@
     </row>
     <row r="8" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -1758,7 +1741,7 @@
     </row>
     <row r="9" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
@@ -1774,12 +1757,12 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1798,7 +1781,7 @@
     </row>
     <row r="11" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -1813,10 +1796,11 @@
         <v>13</v>
       </c>
       <c r="F11" s="5"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -1832,12 +1816,12 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="20" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1853,12 +1837,12 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1874,12 +1858,12 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="22" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -1893,13 +1877,14 @@
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="23" t="s">
-        <v>192</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
@@ -1914,11 +1899,13 @@
         <v>17</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -1933,13 +1920,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -1958,7 +1945,7 @@
     </row>
     <row r="19" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1973,13 +1960,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
@@ -1995,12 +1982,12 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -2015,13 +2002,13 @@
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
@@ -2036,13 +2023,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
@@ -2058,12 +2045,12 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
@@ -2082,7 +2069,7 @@
     </row>
     <row r="25" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
@@ -2098,12 +2085,12 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="23" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>12</v>
@@ -2122,7 +2109,7 @@
     </row>
     <row r="27" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -2141,7 +2128,7 @@
     </row>
     <row r="28" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -2160,7 +2147,7 @@
     </row>
     <row r="29" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
@@ -2175,13 +2162,13 @@
         <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -2196,13 +2183,13 @@
         <v>17</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>16</v>
@@ -2217,13 +2204,13 @@
         <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -2238,13 +2225,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>16</v>
@@ -2259,13 +2246,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
@@ -2280,13 +2267,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>16</v>
@@ -2301,13 +2288,13 @@
         <v>17</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="165.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
@@ -2322,34 +2309,34 @@
         <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>12</v>
@@ -2368,7 +2355,7 @@
     </row>
     <row r="39" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>12</v>
@@ -2387,7 +2374,7 @@
     </row>
     <row r="40" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>16</v>
@@ -2406,7 +2393,7 @@
     </row>
     <row r="41" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>16</v>
@@ -2421,13 +2408,13 @@
         <v>17</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>16</v>
@@ -2448,7 +2435,7 @@
     </row>
     <row r="43" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>12</v>
@@ -2467,7 +2454,7 @@
     </row>
     <row r="44" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>16</v>
@@ -2483,12 +2470,12 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="23" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -2509,7 +2496,7 @@
     </row>
     <row r="46" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
@@ -2528,7 +2515,7 @@
     </row>
     <row r="47" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>12</v>
@@ -2544,12 +2531,12 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="26" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
@@ -2565,12 +2552,12 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="20" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>16</v>
@@ -2589,7 +2576,7 @@
     </row>
     <row r="50" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>16</v>
@@ -2608,7 +2595,7 @@
     </row>
     <row r="51" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>16</v>
@@ -2627,7 +2614,7 @@
     </row>
     <row r="52" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
@@ -2642,15 +2629,15 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>12</v>
@@ -2664,14 +2651,14 @@
       <c r="E53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="23" t="s">
-        <v>52</v>
-      </c>
+      <c r="F53" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>12</v>
@@ -2692,7 +2679,7 @@
     </row>
     <row r="55" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>12</v>
@@ -2708,12 +2695,12 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="23" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>16</v>
@@ -2732,7 +2719,7 @@
     </row>
     <row r="57" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>16</v>
@@ -2748,12 +2735,12 @@
       </c>
       <c r="F57" s="23"/>
       <c r="G57" s="20" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>12</v>
@@ -2768,13 +2755,13 @@
         <v>13</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>12</v>
@@ -2790,12 +2777,12 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="23" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>12</v>
@@ -2811,12 +2798,12 @@
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>16</v>
@@ -2832,12 +2819,12 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>16</v>
@@ -2846,19 +2833,19 @@
         <v>17</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="23" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>12</v>
@@ -2873,13 +2860,13 @@
         <v>13</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>12</v>
@@ -2893,16 +2880,13 @@
       <c r="E64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>58</v>
+      <c r="F64" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>12</v>
@@ -2923,7 +2907,7 @@
     </row>
     <row r="66" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>12</v>
@@ -2938,13 +2922,13 @@
         <v>13</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>16</v>
@@ -2960,12 +2944,12 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="23" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>16</v>
@@ -2986,7 +2970,7 @@
     </row>
     <row r="69" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>16</v>
@@ -3005,7 +2989,7 @@
     </row>
     <row r="70" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>16</v>
@@ -3021,12 +3005,12 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="20" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>12</v>
@@ -3045,7 +3029,7 @@
     </row>
     <row r="72" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>12</v>
@@ -3064,7 +3048,7 @@
     </row>
     <row r="73" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>12</v>
@@ -3083,7 +3067,7 @@
     </row>
     <row r="74" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>16</v>
@@ -3102,7 +3086,7 @@
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>16</v>
@@ -3121,7 +3105,7 @@
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>16</v>
@@ -3136,13 +3120,13 @@
         <v>17</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>12</v>
@@ -3161,7 +3145,7 @@
     </row>
     <row r="78" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>12</v>
@@ -3177,12 +3161,12 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="23" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>16</v>
@@ -3201,7 +3185,7 @@
     </row>
     <row r="80" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>12</v>
@@ -3220,7 +3204,7 @@
     </row>
     <row r="81" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>12</v>
@@ -3236,12 +3220,12 @@
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="20" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>12</v>
@@ -3257,12 +3241,12 @@
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>16</v>
@@ -3278,12 +3262,12 @@
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>16</v>
@@ -3299,12 +3283,12 @@
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="20" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>16</v>
@@ -3323,7 +3307,7 @@
     </row>
     <row r="86" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>16</v>
@@ -3342,7 +3326,7 @@
     </row>
     <row r="87" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>12</v>
@@ -3357,13 +3341,13 @@
         <v>13</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="G87" s="23"/>
     </row>
     <row r="88" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>12</v>
@@ -3382,7 +3366,7 @@
     </row>
     <row r="89" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>12</v>
@@ -3398,12 +3382,12 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="23" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>12</v>
@@ -3419,12 +3403,12 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="23" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>16</v>
@@ -3443,7 +3427,7 @@
     </row>
     <row r="92" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>16</v>
@@ -3459,12 +3443,12 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="23" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>12</v>
@@ -3483,7 +3467,7 @@
     </row>
     <row r="94" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>12</v>
@@ -3499,12 +3483,12 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="23" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>12</v>
@@ -3520,12 +3504,12 @@
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>16</v>
@@ -3541,12 +3525,12 @@
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>16</v>
@@ -3562,12 +3546,12 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="23" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>12</v>
@@ -3586,7 +3570,7 @@
     </row>
     <row r="99" spans="1:7" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>12</v>
@@ -3601,13 +3585,13 @@
         <v>13</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>16</v>
@@ -3623,12 +3607,12 @@
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="23" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>16</v>
@@ -3649,7 +3633,7 @@
     </row>
     <row r="102" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>12</v>
@@ -3668,7 +3652,7 @@
     </row>
     <row r="103" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>12</v>
@@ -3687,7 +3671,7 @@
     </row>
     <row r="104" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>12</v>
@@ -3706,7 +3690,7 @@
     </row>
     <row r="105" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>16</v>
@@ -3725,7 +3709,7 @@
     </row>
     <row r="106" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>16</v>
@@ -3744,7 +3728,7 @@
     </row>
     <row r="107" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>12</v>
@@ -3763,7 +3747,7 @@
     </row>
     <row r="108" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>12</v>
@@ -3782,7 +3766,7 @@
     </row>
     <row r="109" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>16</v>
@@ -3801,7 +3785,7 @@
     </row>
     <row r="110" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>16</v>
@@ -3830,13 +3814,13 @@
           <x14:formula1>
             <xm:f>'Convalida dati'!$B$7:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D38:D39 D32 D34 D43 B2:B18 B52:B110 D45:D110 D2:D29</xm:sqref>
+          <xm:sqref>D38:D39 D32 D34 D43 B2:B18 D2:D29 B52:B110 D45:D110</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C618985-EC7F-413A-81FA-9FE8DCE8A8FA}">
           <x14:formula1>
             <xm:f>'Convalida dati'!$B$3:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E38:E39 E32 E34 E43 C2:C18 C52:C110 E45:E110 E2:E29</xm:sqref>
+          <xm:sqref>E38:E39 E32 E34 E43 C2:C18 E2:E29 C52:C110 E45:E110</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3848,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B5470-0087-4830-8706-76B03F96882A}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3871,10 +3855,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>9</v>
@@ -3922,7 +3906,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="22" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3990,7 +3974,7 @@
     </row>
     <row r="7" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -4011,7 +3995,7 @@
     </row>
     <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
@@ -4030,7 +4014,7 @@
     </row>
     <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
@@ -4046,12 +4030,12 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -4070,7 +4054,7 @@
     </row>
     <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -4085,11 +4069,11 @@
         <v>13</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
@@ -4103,14 +4087,14 @@
       <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="20" t="s">
-        <v>191</v>
+      <c r="F12" s="23"/>
+      <c r="G12" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -4126,12 +4110,12 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="20" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -4146,13 +4130,13 @@
         <v>13</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="22" t="s">
-        <v>28</v>
+      <c r="G14" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -4166,14 +4150,14 @@
       <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="23" t="s">
-        <v>192</v>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
@@ -4188,11 +4172,11 @@
         <v>17</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="112.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>12</v>
@@ -4207,13 +4191,13 @@
         <v>13</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -4232,7 +4216,7 @@
     </row>
     <row r="19" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -4247,13 +4231,13 @@
         <v>13</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>12</v>
@@ -4269,12 +4253,12 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>12</v>
@@ -4289,13 +4273,13 @@
         <v>13</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>16</v>
@@ -4310,13 +4294,13 @@
         <v>13</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G22" s="24"/>
     </row>
     <row r="23" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>16</v>
@@ -4332,12 +4316,12 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>16</v>
@@ -4356,7 +4340,7 @@
     </row>
     <row r="25" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>16</v>
@@ -4372,12 +4356,12 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="23" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>16</v>
@@ -4396,7 +4380,7 @@
     </row>
     <row r="27" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -4415,7 +4399,7 @@
     </row>
     <row r="28" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>16</v>
@@ -4434,7 +4418,7 @@
     </row>
     <row r="29" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
@@ -4449,13 +4433,13 @@
         <v>13</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>16</v>
@@ -4470,13 +4454,13 @@
         <v>17</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="G30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>16</v>
@@ -4491,13 +4475,13 @@
         <v>17</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -4512,13 +4496,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>16</v>
@@ -4533,13 +4517,13 @@
         <v>17</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
@@ -4554,13 +4538,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>16</v>
@@ -4575,13 +4559,13 @@
         <v>17</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>16</v>
@@ -4596,34 +4580,34 @@
         <v>17</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>12</v>
@@ -4642,7 +4626,7 @@
     </row>
     <row r="39" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>12</v>
@@ -4661,7 +4645,7 @@
     </row>
     <row r="40" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>16</v>
@@ -4680,7 +4664,7 @@
     </row>
     <row r="41" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>16</v>
@@ -4695,13 +4679,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G41" s="25"/>
     </row>
     <row r="42" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>16</v>
@@ -4722,7 +4706,7 @@
     </row>
     <row r="43" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>12</v>
@@ -4741,7 +4725,7 @@
     </row>
     <row r="44" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>16</v>
@@ -4757,12 +4741,12 @@
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="23" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -4783,7 +4767,7 @@
     </row>
     <row r="46" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
@@ -4802,7 +4786,7 @@
     </row>
     <row r="47" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>12</v>
@@ -4818,12 +4802,12 @@
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="23" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
@@ -4839,12 +4823,12 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="23" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>16</v>
@@ -4860,12 +4844,12 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="23" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>16</v>
@@ -4884,7 +4868,7 @@
     </row>
     <row r="51" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>16</v>
@@ -4903,7 +4887,7 @@
     </row>
     <row r="52" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
@@ -4918,15 +4902,15 @@
         <v>13</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>12</v>
@@ -4942,12 +4926,12 @@
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="23" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>12</v>
@@ -4968,7 +4952,7 @@
     </row>
     <row r="55" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>12</v>
@@ -4984,12 +4968,12 @@
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="23" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>16</v>
@@ -5008,7 +4992,7 @@
     </row>
     <row r="57" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>16</v>
@@ -5024,12 +5008,12 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="23" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>12</v>
@@ -5044,13 +5028,13 @@
         <v>13</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="G58" s="23"/>
     </row>
     <row r="59" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>12</v>
@@ -5066,12 +5050,12 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="23" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>12</v>
@@ -5087,12 +5071,12 @@
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>16</v>
@@ -5108,12 +5092,12 @@
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>16</v>
@@ -5121,20 +5105,20 @@
       <c r="C62" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>17</v>
+      <c r="D62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="23" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>12</v>
@@ -5149,13 +5133,13 @@
         <v>13</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G63" s="23"/>
     </row>
     <row r="64" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>12</v>
@@ -5169,16 +5153,13 @@
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>58</v>
+      <c r="F64" s="28" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>12</v>
@@ -5199,7 +5180,7 @@
     </row>
     <row r="66" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>12</v>
@@ -5214,13 +5195,13 @@
         <v>13</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="G66" s="23"/>
     </row>
     <row r="67" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>16</v>
@@ -5236,12 +5217,12 @@
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="23" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>16</v>
@@ -5262,7 +5243,7 @@
     </row>
     <row r="69" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>16</v>
@@ -5281,7 +5262,7 @@
     </row>
     <row r="70" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>16</v>
@@ -5297,12 +5278,12 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="20" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>12</v>
@@ -5321,7 +5302,7 @@
     </row>
     <row r="72" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>12</v>
@@ -5340,7 +5321,7 @@
     </row>
     <row r="73" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>12</v>
@@ -5359,7 +5340,7 @@
     </row>
     <row r="74" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>16</v>
@@ -5378,7 +5359,7 @@
     </row>
     <row r="75" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>16</v>
@@ -5397,7 +5378,7 @@
     </row>
     <row r="76" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>16</v>
@@ -5412,13 +5393,13 @@
         <v>13</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="G76" s="23"/>
     </row>
     <row r="77" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>12</v>
@@ -5437,7 +5418,7 @@
     </row>
     <row r="78" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>12</v>
@@ -5453,12 +5434,12 @@
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="20" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>16</v>
@@ -5477,7 +5458,7 @@
     </row>
     <row r="80" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>12</v>
@@ -5496,7 +5477,7 @@
     </row>
     <row r="81" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>12</v>
@@ -5512,12 +5493,12 @@
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="23" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>12</v>
@@ -5533,12 +5514,12 @@
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>16</v>
@@ -5554,12 +5535,12 @@
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>16</v>
@@ -5575,12 +5556,12 @@
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="23" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>16</v>
@@ -5599,7 +5580,7 @@
     </row>
     <row r="86" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>16</v>
@@ -5618,7 +5599,7 @@
     </row>
     <row r="87" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>12</v>
@@ -5633,13 +5614,13 @@
         <v>13</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="G87" s="23"/>
     </row>
     <row r="88" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>12</v>
@@ -5658,7 +5639,7 @@
     </row>
     <row r="89" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>12</v>
@@ -5679,7 +5660,7 @@
     </row>
     <row r="90" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>12</v>
@@ -5695,12 +5676,12 @@
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="23" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>16</v>
@@ -5719,7 +5700,7 @@
     </row>
     <row r="92" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>16</v>
@@ -5735,12 +5716,12 @@
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="27" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>12</v>
@@ -5759,7 +5740,7 @@
     </row>
     <row r="94" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>12</v>
@@ -5775,12 +5756,12 @@
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="23" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>12</v>
@@ -5796,12 +5777,12 @@
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="23" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>16</v>
@@ -5817,12 +5798,12 @@
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>16</v>
@@ -5838,12 +5819,12 @@
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="23" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>12</v>
@@ -5862,7 +5843,7 @@
     </row>
     <row r="99" spans="1:7" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>12</v>
@@ -5877,13 +5858,13 @@
         <v>13</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="G99" s="23"/>
     </row>
     <row r="100" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>16</v>
@@ -5899,12 +5880,12 @@
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="23" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>16</v>
@@ -5925,7 +5906,7 @@
     </row>
     <row r="102" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>12</v>
@@ -5944,7 +5925,7 @@
     </row>
     <row r="103" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>12</v>
@@ -5963,7 +5944,7 @@
     </row>
     <row r="104" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>12</v>
@@ -5982,7 +5963,7 @@
     </row>
     <row r="105" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>16</v>
@@ -6001,7 +5982,7 @@
     </row>
     <row r="106" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>16</v>
@@ -6020,7 +6001,7 @@
     </row>
     <row r="107" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>12</v>
@@ -6039,7 +6020,7 @@
     </row>
     <row r="108" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>12</v>
@@ -6058,7 +6039,7 @@
     </row>
     <row r="109" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>16</v>
@@ -6077,7 +6058,7 @@
     </row>
     <row r="110" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>16</v>
@@ -6095,10 +6076,11 @@
       <c r="G110" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G110" xr:uid="{E87B5470-0087-4830-8706-76B03F96882A}"/>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" xr:uid="{B738F763-FFE8-4465-9844-8E3A8640D56E}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{9A28CA19-E0AC-47BD-A6EB-375EB4A8CAAE}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{17234E4F-5965-4C80-A35C-E62C0E5D021A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{17234E4F-5965-4C80-A35C-E62C0E5D021A}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9A28CA19-E0AC-47BD-A6EB-375EB4A8CAAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -6108,13 +6090,13 @@
           <x14:formula1>
             <xm:f>'Convalida dati'!$B$3:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E37:E39 E32 E34 C2:C18 E2:E29 E41:E110 C52:C110</xm:sqref>
+          <xm:sqref>E37:E39 E32 E34 C2:C18 E2:E29 C52:C110 E41:E110</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6B38C98-A447-476A-B151-18248DEDEDD1}">
           <x14:formula1>
             <xm:f>'Convalida dati'!$B$7:$B$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D32 D34 D37:D39 B2:B18 D2:D29 D41:D110 B52:B110</xm:sqref>
+          <xm:sqref>D32 D34 D37:D39 B2:B18 D2:D29 B52:B110 D41:D110</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6137,7 +6119,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
@@ -6152,12 +6134,12 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
@@ -6167,7 +6149,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -6177,27 +6159,27 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6208,10 +6190,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2eb509d29c919a75d3f202605fe7173b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b88fea068e0fac9691c029cf4c08499" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ded3a6aadbdf34d96c7fc30e5856767">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" xmlns:ns3="14722739-9480-433a-8c7c-4ec5d8a77ba5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f351b1b6c8daa9a12afc7a7c24e3e10f" ns2:_="" ns3:_="">
+    <xsd:import namespace="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <xsd:import namespace="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -6220,21 +6212,16 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6242,7 +6229,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d04b37e-0497-498c-96f6-8855740e5edb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -6255,91 +6242,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="33ef62f9-2e07-484b-bd79-00aec90129fe" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
-          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="14722739-9480-433a-8c7c-4ec5d8a77ba5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -6358,7 +6309,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -6465,7 +6416,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6474,36 +6425,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D972D8A-DBEB-45E0-8ECE-CCC243E02B2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C0AEB7-C55A-461D-A0CE-4337A3223303}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E5885C3-EF55-4CB5-87D1-3C703588E643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <ds:schemaRef ds:uri="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F51A983D-5463-4E4A-8B75-1C405A420DB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C0AEB7-C55A-461D-A0CE-4337A3223303}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>